--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ip</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>imap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>imap</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -466,21 +461,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bbj0g9iodx@autorambler.ru:@18adhm@2!FNPm!6FO!3:{LwrXLXmYY</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>194.5.8.254</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ошибка</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>guykris8128@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Error -- Перенос в конец очереди</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,19 +482,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>p0lbh486ji@autorambler.ru:fsAU4tXN!!4@!1@2sT3h:?mW8Gde7{hxEa3s</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>185.51.122.0</t>
-        </is>
+          <t>pauline_sporer10@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Error -- Перенос в конец очереди</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -508,19 +503,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vvhfmfq4ed@autorambler.ru:6Gx9!3T!1oFCm!t@P3e!:?mW8Gde7{hxEa3s</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>185.51.122.0</t>
-        </is>
+          <t>claire_dickens0739@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Error -- Перенос в конец очереди</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -528,15 +524,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>xymvx1lllq@autorambler.ru:48qAAXh!0!6!@om!HfZ5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Success</t>
+          <t>guykris8128@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Error -- Перенос в конец очереди</t>
         </is>
       </c>
     </row>
@@ -546,15 +545,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rvg24lmsh6@autorambler.ru:1Nu!c@UBa7!@3Y8@E2xk</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Success</t>
+          <t>pauline_sporer10@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Error -- Перенос в конец очереди</t>
         </is>
       </c>
     </row>
@@ -564,15 +566,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lowxkm5q5y@autorambler.ru:y@TVr@5@I!rf554O!uM9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Success</t>
+          <t>claire_dickens0739@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Error -- Перенос в конец очереди</t>
         </is>
       </c>
     </row>
@@ -582,15 +587,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hz93ga3yn4@autorambler.ru:m6!7b@u!CR@50DoXq!8X</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Success</t>
+          <t>guykris8128@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Error -- Перенос в конец очереди</t>
         </is>
       </c>
     </row>
@@ -600,15 +608,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>amn3o2xkb0@autorambler.ru:x5l!!ALH0mA@8q@jW@96</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Success</t>
+          <t>pauline_sporer10@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Error -- Перенос в конец очереди</t>
         </is>
       </c>
     </row>
@@ -618,423 +629,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9ku5ggacac@autorambler.ru:Dq!w66yX@kW@9V5An!3!</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>6p36f0so1t@autorambler.ru:f31F@C@A0c!6@dOY!ja1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6p36f0so1t@autorambler.ru:f31F@C@A0c!6@dOY!ja1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>xymvx1lllq@autorambler.ru:48qAAXh!0!6!@om!HfZ5</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>rvg24lmsh6@autorambler.ru:1Nu!c@UBa7!@3Y8@E2xk</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>lowxkm5q5y@autorambler.ru:y@TVr@5@I!rf554O!uM9</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>xymvx1lllq@autorambler.ru:48qAAXh!0!6!@om!HfZ5</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>rvg24lmsh6@autorambler.ru:1Nu!c@UBa7!@3Y8@E2xk</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>hz93ga3yn4@autorambler.ru:m6!7b@u!CR@50DoXq!8X</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>amn3o2xkb0@autorambler.ru:x5l!!ALH0mA@8q@jW@96</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>9ku5ggacac@autorambler.ru:Dq!w66yX@kW@9V5An!3!</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>6p36f0so1t@autorambler.ru:f31F@C@A0c!6@dOY!ja1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>49jide7p19@autorambler.ru:@zg!29O!k8x@E2n!QRH0123</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>49jide7p19@autorambler.ru:@zg!29O!k8x@E2n!QRH0123</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>49jide7p19@autorambler.ru:@zg!29O!k8x@E2n!QRH0123</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>49jide7p19@autorambler.ru:@zg!29O!k8x@E2n!QRH0123</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>49jide7p19@autorambler.ru:@zg!29O!k8x@E2n!QRH0123</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>49jide7p19@autorambler.ru:@zg!29O!k8x@E2n!QRH0123</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Невалид</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>49jide7p19@autorambler.ru:@zg!29O!k8x@E2n!QRH0</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>49jide7p19@autorambler.ru:@zg!29O!k8x@E2n!QRH0</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>49jide7p19@autorambler.ru:@zg!29O!k8x@E2n!QRH0</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>49jide7p19@autorambler.ru:@zg!29O!k8x@E2n!QRH0:true</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>wendell_bruen8175@rambler.ru:CRRmFNnWLlQ21!34:CRRm:true</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Уже был включен</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Success</t>
+          <t>claire_dickens0739@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Error -- Перенос в конец очереди</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,211 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mail</t>
+          <t>seed</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>token</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>imap</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>guykris8128@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Error -- Перенос в конец очереди</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>pauline_sporer10@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
-        </is>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Error -- Перенос в конец очереди</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>claire_dickens0739@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
-        </is>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Error -- Перенос в конец очереди</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>guykris8128@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
-        </is>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Error -- Перенос в конец очереди</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>pauline_sporer10@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
-        </is>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Error -- Перенос в конец очереди</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>claire_dickens0739@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Error -- Перенос в конец очереди</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>guykris8128@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
-        </is>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Error -- Перенос в конец очереди</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>pauline_sporer10@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
-        </is>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Error -- Перенос в конец очереди</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>claire_dickens0739@rambler.ua:CRRmFNnWLlQ21!34:CRRm:true</t>
-        </is>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Error -- Перенос в конец очереди</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,26 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>pave tortoise sure picnic pupil force mule meadow ankle ability october wear</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OTc0MDI0NDQ3ODgxMjU3MDIx.GFzgwJ.gLtU4gERlA-9Obvm2WESH9eLcg3Hi42ra6pRaM</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Error -- Перенос в конец очереди</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,26 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>pave tortoise sure picnic pupil force mule meadow ankle ability october wear</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>OTc0MDI0NDQ3ODgxMjU3MDIx.GFzgwJ.gLtU4gERlA-9Obvm2WESH9eLcg3Hi42ra6pRaM</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Error -- Перенос в конец очереди</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
